--- a/jcp-v2/60-rsconnectFiles/SKU_Div1-20Feb_Small_Match.xlsx
+++ b/jcp-v2/60-rsconnectFiles/SKU_Div1-20Feb_Small_Match.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
   <si>
     <t>10-SEP-15 11.58.06.607000000 AM</t>
   </si>
@@ -183,6 +183,33 @@
   </si>
   <si>
     <t>Violet</t>
+  </si>
+  <si>
+    <t>Hello2720010067</t>
+  </si>
+  <si>
+    <t>Hello2720010075</t>
+  </si>
+  <si>
+    <t>Hello2720010083</t>
+  </si>
+  <si>
+    <t>Hello2720010091</t>
+  </si>
+  <si>
+    <t>Hello2720010265</t>
+  </si>
+  <si>
+    <t>Hello2720010273</t>
+  </si>
+  <si>
+    <t>Hello2720010281</t>
+  </si>
+  <si>
+    <t>Hello2720010299</t>
+  </si>
+  <si>
+    <t>Hello2720010463</t>
   </si>
 </sst>
 </file>
@@ -542,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -629,8 +656,8 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2720010067</v>
+      <c r="A2" t="s">
+        <v>53</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -682,8 +709,8 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2720010075</v>
+      <c r="A3" t="s">
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -735,8 +762,8 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2720010083</v>
+      <c r="A4" t="s">
+        <v>55</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -788,8 +815,8 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2720010091</v>
+      <c r="A5" t="s">
+        <v>56</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -841,8 +868,8 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2720010265</v>
+      <c r="A6" t="s">
+        <v>57</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -894,8 +921,8 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>2720010273</v>
+      <c r="A7" t="s">
+        <v>58</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -947,8 +974,8 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>2720010281</v>
+      <c r="A8" t="s">
+        <v>59</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -1000,8 +1027,8 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>2720010299</v>
+      <c r="A9" t="s">
+        <v>60</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -1053,8 +1080,8 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>2720010463</v>
+      <c r="A10" t="s">
+        <v>61</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>

--- a/jcp-v2/60-rsconnectFiles/SKU_Div1-20Feb_Small_Match.xlsx
+++ b/jcp-v2/60-rsconnectFiles/SKU_Div1-20Feb_Small_Match.xlsx
@@ -185,31 +185,31 @@
     <t>Violet</t>
   </si>
   <si>
-    <t>Hello2720010067</t>
-  </si>
-  <si>
-    <t>Hello2720010075</t>
-  </si>
-  <si>
-    <t>Hello2720010083</t>
-  </si>
-  <si>
-    <t>Hello2720010091</t>
-  </si>
-  <si>
-    <t>Hello2720010265</t>
-  </si>
-  <si>
-    <t>Hello2720010273</t>
-  </si>
-  <si>
-    <t>Hello2720010281</t>
-  </si>
-  <si>
-    <t>Hello2720010299</t>
-  </si>
-  <si>
-    <t>Hello2720010463</t>
+    <t>World2720010067</t>
+  </si>
+  <si>
+    <t>World2720010075</t>
+  </si>
+  <si>
+    <t>World2720010083</t>
+  </si>
+  <si>
+    <t>World2720010091</t>
+  </si>
+  <si>
+    <t>World2720010265</t>
+  </si>
+  <si>
+    <t>World2720010273</t>
+  </si>
+  <si>
+    <t>World2720010281</t>
+  </si>
+  <si>
+    <t>World2720010299</t>
+  </si>
+  <si>
+    <t>World2720010463</t>
   </si>
 </sst>
 </file>
@@ -570,7 +570,7 @@
   <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/jcp-v2/60-rsconnectFiles/SKU_Div1-20Feb_Small_Match.xlsx
+++ b/jcp-v2/60-rsconnectFiles/SKU_Div1-20Feb_Small_Match.xlsx
@@ -35,75 +35,27 @@
     <t>25-FEB-17 11.59.59.000000000 PM</t>
   </si>
   <si>
-    <t>BLACK MULTI SMALL</t>
-  </si>
-  <si>
-    <t>COLOR:Black Multi||SIZE:Small</t>
-  </si>
-  <si>
     <t>10-SEP-15 11.58.06.667000000 AM</t>
   </si>
   <si>
-    <t>BLACK MULTI MEDIUM</t>
-  </si>
-  <si>
-    <t>COLOR:Black Multi||SIZE:Medium</t>
-  </si>
-  <si>
     <t>10-SEP-15 11.58.06.750000000 AM</t>
   </si>
   <si>
-    <t>BLACK MULTI LARGE</t>
-  </si>
-  <si>
-    <t>COLOR:Black Multi||SIZE:Large</t>
-  </si>
-  <si>
     <t>10-SEP-15 11.58.06.839000000 AM</t>
   </si>
   <si>
-    <t>BLACK MULTI X-LARGE</t>
-  </si>
-  <si>
-    <t>COLOR:Black Multi||SIZE:X-large</t>
-  </si>
-  <si>
     <t>10-SEP-15 11.58.06.930000000 AM</t>
   </si>
   <si>
-    <t>INDIGO SMALL</t>
-  </si>
-  <si>
-    <t>COLOR:Indigo||SIZE:Small</t>
-  </si>
-  <si>
     <t>10-SEP-15 11.58.07.024000000 AM</t>
   </si>
   <si>
-    <t>INDIGO MEDIUM</t>
-  </si>
-  <si>
-    <t>COLOR:Indigo||SIZE:Medium</t>
-  </si>
-  <si>
     <t>10-SEP-15 11.58.07.110000000 AM</t>
   </si>
   <si>
-    <t>INDIGO LARGE</t>
-  </si>
-  <si>
-    <t>COLOR:Indigo||SIZE:Large</t>
-  </si>
-  <si>
     <t>10-SEP-15 11.58.07.168000000 AM</t>
   </si>
   <si>
-    <t>INDIGO X-LARGE</t>
-  </si>
-  <si>
-    <t>COLOR:Indigo||SIZE:X-large</t>
-  </si>
-  <si>
     <t>10-SEP-15 11.58.07.258000000 AM</t>
   </si>
   <si>
@@ -173,43 +125,91 @@
     <t>COLOR DESC</t>
   </si>
   <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>Violet</t>
-  </si>
-  <si>
-    <t>World2720010067</t>
-  </si>
-  <si>
-    <t>World2720010075</t>
-  </si>
-  <si>
-    <t>World2720010083</t>
-  </si>
-  <si>
-    <t>World2720010091</t>
-  </si>
-  <si>
-    <t>World2720010265</t>
-  </si>
-  <si>
-    <t>World2720010273</t>
-  </si>
-  <si>
-    <t>World2720010281</t>
-  </si>
-  <si>
-    <t>World2720010299</t>
-  </si>
-  <si>
-    <t>World2720010463</t>
+    <t>Violet_Pink Light</t>
+  </si>
+  <si>
+    <t>ULTRA Violet_Pink SMALL</t>
+  </si>
+  <si>
+    <t>COLOR:ULTRA Violet_Pink||SIZE:Small</t>
+  </si>
+  <si>
+    <t>ULTRA Violet_Pink MEDIUM</t>
+  </si>
+  <si>
+    <t>COLOR:ULTRA Violet_Pink||SIZE:Medium</t>
+  </si>
+  <si>
+    <t>ULTRA Violet_Pink LARGE</t>
+  </si>
+  <si>
+    <t>COLOR:ULTRA Violet_Pink||SIZE:Large</t>
+  </si>
+  <si>
+    <t>ULTRA Violet_Pink X-LARGE</t>
+  </si>
+  <si>
+    <t>COLOR:ULTRA Violet_Pink||SIZE:X-large</t>
+  </si>
+  <si>
+    <t>Green_Brown Light</t>
+  </si>
+  <si>
+    <t>RED_Blue_sky Light</t>
+  </si>
+  <si>
+    <t>MAGENTO_Blue_sky_RED_Blue_sky MULTI SMALL</t>
+  </si>
+  <si>
+    <t>COLOR:MAGENTO_Blue_sky_RED_Blue_sky Multi||SIZE:Small</t>
+  </si>
+  <si>
+    <t>Blue_sky Light</t>
+  </si>
+  <si>
+    <t>MAGENTO_Blue_sky_RED_Blue_sky MULTI MEDIUM</t>
+  </si>
+  <si>
+    <t>COLOR:MAGENTO_Blue_sky_RED_Blue_sky Multi||SIZE:Medium</t>
+  </si>
+  <si>
+    <t>MAGENTO_Blue_sky_RED_Blue_sky MULTI LARGE</t>
+  </si>
+  <si>
+    <t>COLOR:MAGENTO_Blue_sky_RED_Blue_sky Multi||SIZE:Large</t>
+  </si>
+  <si>
+    <t>MAGENTO_Blue_sky_RED_Blue_sky MULTI X-LARGE</t>
+  </si>
+  <si>
+    <t>COLOR:MAGENTO_Blue_sky_RED_Blue_sky Multi||SIZE:X-large</t>
+  </si>
+  <si>
+    <t>Violet_Id_JCP2720010067</t>
+  </si>
+  <si>
+    <t>Violet_Id_JCP2720010075</t>
+  </si>
+  <si>
+    <t>Violet_Id_JCP2720010083</t>
+  </si>
+  <si>
+    <t>Violet_Id_JCP2720010091</t>
+  </si>
+  <si>
+    <t>Violet_Id_JCP2720010265</t>
+  </si>
+  <si>
+    <t>Violet_Id_JCP2720010273</t>
+  </si>
+  <si>
+    <t>Violet_Id_JCP2720010281</t>
+  </si>
+  <si>
+    <t>Violet_Id_JCP2720010299</t>
+  </si>
+  <si>
+    <t>Violet_Id_JCP2720010463</t>
   </si>
 </sst>
 </file>
@@ -569,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -584,7 +584,7 @@
     <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.5546875" bestFit="1" customWidth="1"/>
@@ -595,64 +595,64 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="K1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="N1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="O1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="Q1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="R1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="S1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="T1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
@@ -669,19 +669,19 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F2">
-        <v>2017</v>
+        <v>1112017</v>
       </c>
       <c r="G2">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="H2" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="I2" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="J2">
         <v>2720010067</v>
@@ -702,10 +702,10 @@
         <v>39161472036</v>
       </c>
       <c r="S2" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="T2">
-        <v>272001</v>
+        <v>222272001</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
@@ -713,7 +713,7 @@
         <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -722,19 +722,19 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F3">
-        <v>2018</v>
+        <v>1112018</v>
       </c>
       <c r="G3">
-        <v>35</v>
+        <v>235</v>
       </c>
       <c r="H3" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="J3">
         <v>2720010075</v>
@@ -755,10 +755,10 @@
         <v>39161472029</v>
       </c>
       <c r="S3" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="T3">
-        <v>272001</v>
+        <v>222272002</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
@@ -766,7 +766,7 @@
         <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -775,19 +775,19 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F4">
-        <v>2019</v>
+        <v>1112019</v>
       </c>
       <c r="G4">
-        <v>45</v>
+        <v>245</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="I4" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="J4">
         <v>2720010083</v>
@@ -808,10 +808,10 @@
         <v>39161472012</v>
       </c>
       <c r="S4" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T4">
-        <v>272001</v>
+        <v>222272003</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
@@ -819,7 +819,7 @@
         <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -828,19 +828,19 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F5">
-        <v>2020</v>
+        <v>1112020</v>
       </c>
       <c r="G5">
-        <v>55</v>
+        <v>355</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="J5">
         <v>2720010091</v>
@@ -861,10 +861,10 @@
         <v>39161472043</v>
       </c>
       <c r="S5" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="T5">
-        <v>272001</v>
+        <v>222272004</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
@@ -872,7 +872,7 @@
         <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -881,19 +881,19 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F6">
-        <v>2021</v>
+        <v>1112021</v>
       </c>
       <c r="G6">
-        <v>65</v>
+        <v>465</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="J6">
         <v>2720010265</v>
@@ -914,10 +914,10 @@
         <v>39161472074</v>
       </c>
       <c r="S6" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="T6">
-        <v>272001</v>
+        <v>222272005</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
@@ -925,7 +925,7 @@
         <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -934,19 +934,19 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F7">
-        <v>2022</v>
+        <v>1112022</v>
       </c>
       <c r="G7">
-        <v>75</v>
+        <v>575</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J7">
         <v>2720010273</v>
@@ -967,10 +967,10 @@
         <v>39161472067</v>
       </c>
       <c r="S7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="T7">
-        <v>272001</v>
+        <v>222272006</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
@@ -978,7 +978,7 @@
         <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -987,19 +987,19 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F8">
-        <v>2023</v>
+        <v>1112023</v>
       </c>
       <c r="G8">
-        <v>85</v>
+        <v>685</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="J8">
         <v>2720010281</v>
@@ -1020,10 +1020,10 @@
         <v>39161472050</v>
       </c>
       <c r="S8" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="T8">
-        <v>272001</v>
+        <v>222272007</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
@@ -1031,7 +1031,7 @@
         <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -1040,19 +1040,19 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F9">
-        <v>2024</v>
+        <v>1112024</v>
       </c>
       <c r="G9">
-        <v>95</v>
+        <v>795</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="J9">
         <v>2720010299</v>
@@ -1073,10 +1073,10 @@
         <v>39161472081</v>
       </c>
       <c r="S9" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="T9">
-        <v>272001</v>
+        <v>222272008</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
@@ -1084,7 +1084,7 @@
         <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -1093,19 +1093,19 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F10">
-        <v>2025</v>
+        <v>1112025</v>
       </c>
       <c r="G10">
-        <v>105</v>
+        <v>2105</v>
       </c>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="I10" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="J10">
         <v>2720010463</v>
@@ -1126,10 +1126,10 @@
         <v>39161472111</v>
       </c>
       <c r="S10" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="T10">
-        <v>272001</v>
+        <v>222272009</v>
       </c>
     </row>
   </sheetData>
